--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il4-Il2rg.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Il4-Il2rg.xlsx
@@ -543,16 +543,16 @@
         <v>0.5</v>
       </c>
       <c r="G2">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H2">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I2">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J2">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N2">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O2">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P2">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q2">
-        <v>4.424024527873501</v>
+        <v>24.772638441876</v>
       </c>
       <c r="R2">
-        <v>17.696098111494</v>
+        <v>99.09055376750401</v>
       </c>
       <c r="S2">
-        <v>0.00450726130683842</v>
+        <v>0.03502932643803058</v>
       </c>
       <c r="T2">
-        <v>0.002576691667428512</v>
+        <v>0.02069570022961075</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.5</v>
       </c>
       <c r="G3">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H3">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I3">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J3">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>1.704871</v>
       </c>
       <c r="O3">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P3">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q3">
-        <v>0.04888746007016667</v>
+        <v>0.3974767505368333</v>
       </c>
       <c r="R3">
-        <v>0.293324760421</v>
+        <v>2.384860503221</v>
       </c>
       <c r="S3">
-        <v>4.980726390090464E-05</v>
+        <v>0.0005620452128565433</v>
       </c>
       <c r="T3">
-        <v>4.271040210476353E-05</v>
+        <v>0.0004980934729651951</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.5</v>
       </c>
       <c r="G4">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H4">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I4">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J4">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N4">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O4">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P4">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q4">
-        <v>4.585270237595667</v>
+        <v>46.02565073055167</v>
       </c>
       <c r="R4">
-        <v>27.511621425574</v>
+        <v>276.15390438331</v>
       </c>
       <c r="S4">
-        <v>0.004671540809301703</v>
+        <v>0.06508178560576375</v>
       </c>
       <c r="T4">
-        <v>0.004005909395285299</v>
+        <v>0.05767652117237265</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.5</v>
       </c>
       <c r="G5">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H5">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I5">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J5">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N5">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O5">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P5">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q5">
-        <v>0.49674474393225</v>
+        <v>11.53826335419875</v>
       </c>
       <c r="R5">
-        <v>1.986978975729</v>
+        <v>46.153053416795</v>
       </c>
       <c r="S5">
-        <v>0.0005060908567741128</v>
+        <v>0.01631548429976544</v>
       </c>
       <c r="T5">
-        <v>0.0002893198341159236</v>
+        <v>0.009639362400136693</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.5</v>
       </c>
       <c r="G6">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H6">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I6">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J6">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N6">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O6">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P6">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q6">
-        <v>2.604426313775</v>
+        <v>19.16697200465633</v>
       </c>
       <c r="R6">
-        <v>15.62655788265</v>
+        <v>115.001832027938</v>
       </c>
       <c r="S6">
-        <v>0.002653427863392156</v>
+        <v>0.02710272951970857</v>
       </c>
       <c r="T6">
-        <v>0.002275350262703433</v>
+        <v>0.02401887315203168</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.5</v>
       </c>
       <c r="G7">
-        <v>0.0860255</v>
+        <v>0.6994255</v>
       </c>
       <c r="H7">
-        <v>0.172051</v>
+        <v>1.398851</v>
       </c>
       <c r="I7">
-        <v>0.01866214241451323</v>
+        <v>0.182573212173366</v>
       </c>
       <c r="J7">
-        <v>0.01457003365018844</v>
+        <v>0.1466317745802101</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N7">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O7">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P7">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q7">
-        <v>6.158150443287334</v>
+        <v>27.2142468330395</v>
       </c>
       <c r="R7">
-        <v>36.94890265972401</v>
+        <v>163.285480998237</v>
       </c>
       <c r="S7">
-        <v>0.006274014314305928</v>
+        <v>0.03848184109724118</v>
       </c>
       <c r="T7">
-        <v>0.005380052088550509</v>
+        <v>0.03410322415309312</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.132881</v>
       </c>
       <c r="I8">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J8">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N8">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O8">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P8">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q8">
-        <v>19.420184833419</v>
+        <v>13.375001536104</v>
       </c>
       <c r="R8">
-        <v>116.521109000514</v>
+        <v>80.25000921662399</v>
       </c>
       <c r="S8">
-        <v>0.01978557015672646</v>
+        <v>0.01891269256670535</v>
       </c>
       <c r="T8">
-        <v>0.01696639387674631</v>
+        <v>0.01676073117996245</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.132881</v>
       </c>
       <c r="I9">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J9">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>1.704871</v>
       </c>
       <c r="O9">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P9">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q9">
         <v>0.2146017737056667</v>
@@ -1013,10 +1013,10 @@
         <v>1.931415963351</v>
       </c>
       <c r="S9">
-        <v>0.0002186394458051033</v>
+        <v>0.000303453974147894</v>
       </c>
       <c r="T9">
-        <v>0.000281229420618576</v>
+        <v>0.0004033886609412175</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.132881</v>
       </c>
       <c r="I10">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J10">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N10">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O10">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P10">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q10">
-        <v>20.12800674233267</v>
+        <v>24.84972081862333</v>
       </c>
       <c r="R10">
-        <v>181.152060680994</v>
+        <v>223.64748736761</v>
       </c>
       <c r="S10">
-        <v>0.0205067095360582</v>
+        <v>0.03513832345681955</v>
       </c>
       <c r="T10">
-        <v>0.02637717096465702</v>
+        <v>0.0467102178732965</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.132881</v>
       </c>
       <c r="I11">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J11">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N11">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O11">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P11">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q11">
-        <v>2.1805653837165</v>
+        <v>6.229626708857499</v>
       </c>
       <c r="R11">
-        <v>13.083392302299</v>
+        <v>37.377760253145</v>
       </c>
       <c r="S11">
-        <v>0.002221592108979754</v>
+        <v>0.008808897287370169</v>
       </c>
       <c r="T11">
-        <v>0.001905045265607766</v>
+        <v>0.007806585916033413</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.132881</v>
       </c>
       <c r="I12">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J12">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N12">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O12">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P12">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q12">
-        <v>11.43267630635</v>
+        <v>10.34844474100867</v>
       </c>
       <c r="R12">
-        <v>102.89408675715</v>
+        <v>93.136002669078</v>
       </c>
       <c r="S12">
-        <v>0.01164777890008416</v>
+        <v>0.01463304160391491</v>
       </c>
       <c r="T12">
-        <v>0.01498219179755844</v>
+        <v>0.01945205388947558</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1.132881</v>
       </c>
       <c r="I13">
-        <v>0.08192139369797775</v>
+        <v>0.09857314952542007</v>
       </c>
       <c r="J13">
-        <v>0.09593733423031037</v>
+        <v>0.1187519981886584</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N13">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O13">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P13">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q13">
-        <v>27.03249475384933</v>
+        <v>14.693250944983</v>
       </c>
       <c r="R13">
-        <v>243.292452784644</v>
+        <v>132.239258504847</v>
       </c>
       <c r="S13">
-        <v>0.02754110355032408</v>
+        <v>0.0207767406364622</v>
       </c>
       <c r="T13">
-        <v>0.03542530290512225</v>
+        <v>0.02761902066894922</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H14">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I14">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J14">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N14">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O14">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P14">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q14">
-        <v>64.724024053609</v>
+        <v>7.816225086279999</v>
       </c>
       <c r="R14">
-        <v>388.344144321654</v>
+        <v>46.89735051768</v>
       </c>
       <c r="S14">
-        <v>0.06594178838785421</v>
+        <v>0.01105239963449334</v>
       </c>
       <c r="T14">
-        <v>0.05654597496373068</v>
+        <v>0.009794813642419848</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H15">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I15">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J15">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>1.704871</v>
       </c>
       <c r="O15">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P15">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q15">
-        <v>0.7152295656512222</v>
+        <v>0.1254112579105555</v>
       </c>
       <c r="R15">
-        <v>6.437066090861</v>
+        <v>1.128701321195</v>
       </c>
       <c r="S15">
-        <v>0.0007286864090503029</v>
+        <v>0.000177335648064309</v>
       </c>
       <c r="T15">
-        <v>0.0009372876695476151</v>
+        <v>0.0002357365389946767</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H16">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I16">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J16">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N16">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O16">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P16">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q16">
-        <v>67.08306865854821</v>
+        <v>14.52194309849444</v>
       </c>
       <c r="R16">
-        <v>603.747617926934</v>
+        <v>130.69748788645</v>
       </c>
       <c r="S16">
-        <v>0.06834521775447651</v>
+        <v>0.02053450570092543</v>
       </c>
       <c r="T16">
-        <v>0.08791042220384739</v>
+        <v>0.02729701194735068</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H17">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I17">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J17">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N17">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O17">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P17">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q17">
-        <v>7.2674368218815</v>
+        <v>3.640535249920833</v>
       </c>
       <c r="R17">
-        <v>43.604620931289</v>
+        <v>21.843211499525</v>
       </c>
       <c r="S17">
-        <v>0.0074041716045603</v>
+        <v>0.00514783671419768</v>
       </c>
       <c r="T17">
-        <v>0.006349177242753521</v>
+        <v>0.00456209537699047</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H18">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I18">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J18">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N18">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O18">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P18">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q18">
-        <v>38.10307793651667</v>
+        <v>6.047533764412222</v>
       </c>
       <c r="R18">
-        <v>342.92770142865</v>
+        <v>54.42780387971</v>
       </c>
       <c r="S18">
-        <v>0.03881997664630059</v>
+        <v>0.008551411868204911</v>
       </c>
       <c r="T18">
-        <v>0.04993298213167599</v>
+        <v>0.01136759731803946</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,22 +1591,22 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>1.258563666666667</v>
+        <v>0.2206816666666667</v>
       </c>
       <c r="H19">
-        <v>3.775691</v>
+        <v>0.662045</v>
       </c>
       <c r="I19">
-        <v>0.273029443421605</v>
+        <v>0.05760522135825098</v>
       </c>
       <c r="J19">
-        <v>0.3197420818403476</v>
+        <v>0.06939755070551128</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N19">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O19">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P19">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q19">
-        <v>90.09449990745378</v>
+        <v>8.586597640768332</v>
       </c>
       <c r="R19">
-        <v>810.8504991670841</v>
+        <v>77.279378766915</v>
       </c>
       <c r="S19">
-        <v>0.0917896026193631</v>
+        <v>0.01214173179236532</v>
       </c>
       <c r="T19">
-        <v>0.1180662376287924</v>
+        <v>0.01614029588171616</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H20">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I20">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J20">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N20">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O20">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P20">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q20">
-        <v>99.47509829399701</v>
+        <v>44.396428851684</v>
       </c>
       <c r="R20">
-        <v>397.900393175988</v>
+        <v>177.585715406736</v>
       </c>
       <c r="S20">
-        <v>0.1013466943299238</v>
+        <v>0.06277801222414589</v>
       </c>
       <c r="T20">
-        <v>0.05793744028222606</v>
+        <v>0.03708992019301894</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H21">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I21">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J21">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>1.704871</v>
       </c>
       <c r="O21">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P21">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q21">
-        <v>1.099244560057</v>
+        <v>0.7123402828815001</v>
       </c>
       <c r="R21">
-        <v>6.595467360342</v>
+        <v>4.274041697289</v>
       </c>
       <c r="S21">
-        <v>0.001119926537721765</v>
+        <v>0.001007272615008766</v>
       </c>
       <c r="T21">
-        <v>0.0009603521456038757</v>
+        <v>0.000892661130378684</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H22">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I22">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J22">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N22">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O22">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P22">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q22">
-        <v>103.100741127358</v>
+        <v>82.485139110465</v>
       </c>
       <c r="R22">
-        <v>618.6044467641481</v>
+        <v>494.91083466279</v>
       </c>
       <c r="S22">
-        <v>0.1050405526149002</v>
+        <v>0.1166367026655733</v>
       </c>
       <c r="T22">
-        <v>0.09007369383740575</v>
+        <v>0.1033653147059767</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H23">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I23">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J23">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N23">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O23">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P23">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q23">
-        <v>11.1694073842395</v>
+        <v>20.67836614491375</v>
       </c>
       <c r="R23">
-        <v>44.677629536958</v>
+        <v>82.713464579655</v>
       </c>
       <c r="S23">
-        <v>0.01137955664714559</v>
+        <v>0.02923989059925301</v>
       </c>
       <c r="T23">
-        <v>0.006505415771489444</v>
+        <v>0.01727523969549601</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H24">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I24">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J24">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N24">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O24">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P24">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q24">
-        <v>58.56105949005001</v>
+        <v>34.350200964807</v>
       </c>
       <c r="R24">
-        <v>351.3663569403</v>
+        <v>206.101205788842</v>
       </c>
       <c r="S24">
-        <v>0.0596628693769558</v>
+        <v>0.04857231520297665</v>
       </c>
       <c r="T24">
-        <v>0.05116171703154893</v>
+        <v>0.04304556397954049</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.934301</v>
+        <v>1.2534795</v>
       </c>
       <c r="H25">
-        <v>3.868602</v>
+        <v>2.506959</v>
       </c>
       <c r="I25">
-        <v>0.4196220973378282</v>
+        <v>0.327199649867591</v>
       </c>
       <c r="J25">
-        <v>0.327610193019432</v>
+        <v>0.2627869923028463</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N25">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O25">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P25">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q25">
-        <v>138.467274942908</v>
+        <v>48.7721716082055</v>
       </c>
       <c r="R25">
-        <v>830.8036496574481</v>
+        <v>292.633029649233</v>
       </c>
       <c r="S25">
-        <v>0.1410724978311811</v>
+        <v>0.06896545656063344</v>
       </c>
       <c r="T25">
-        <v>0.1209715739511579</v>
+        <v>0.06111829259843557</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F26">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G26">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H26">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I26">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J26">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N26">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O26">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P26">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q26">
-        <v>29.714272521311</v>
+        <v>9.060407980935999</v>
       </c>
       <c r="R26">
-        <v>178.285635127866</v>
+        <v>54.362447885616</v>
       </c>
       <c r="S26">
-        <v>0.03027333821327917</v>
+        <v>0.01281171521437302</v>
       </c>
       <c r="T26">
-        <v>0.02595979676207776</v>
+        <v>0.0113539472978251</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G27">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H27">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I27">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J27">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>1.704871</v>
       </c>
       <c r="O27">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P27">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q27">
-        <v>0.3283560708687778</v>
+        <v>0.1453741607398889</v>
       </c>
       <c r="R27">
-        <v>2.955204637819</v>
+        <v>1.308367446659</v>
       </c>
       <c r="S27">
-        <v>0.0003345339981204224</v>
+        <v>0.0002055638499774859</v>
       </c>
       <c r="T27">
-        <v>0.0004303011385808507</v>
+        <v>0.0002732609662245705</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F28">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G28">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H28">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I28">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J28">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N28">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O28">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P28">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q28">
-        <v>30.79729069433178</v>
+        <v>16.83353891372111</v>
       </c>
       <c r="R28">
-        <v>277.175616248986</v>
+        <v>151.50185022349</v>
       </c>
       <c r="S28">
-        <v>0.03137673306904995</v>
+        <v>0.02380317829687634</v>
       </c>
       <c r="T28">
-        <v>0.04035895915039255</v>
+        <v>0.03164213698727939</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G29">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H29">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I29">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J29">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N29">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O29">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P29">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q29">
-        <v>3.3364210803385</v>
+        <v>4.220033874300833</v>
       </c>
       <c r="R29">
-        <v>20.018526482031</v>
+        <v>25.320203245805</v>
       </c>
       <c r="S29">
-        <v>0.003399194905901244</v>
+        <v>0.005967266850047975</v>
       </c>
       <c r="T29">
-        <v>0.002914855583160614</v>
+        <v>0.005288287492645394</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G30">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H30">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I30">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J30">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N30">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O30">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P30">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q30">
-        <v>17.49281288148334</v>
+        <v>7.010177237633555</v>
       </c>
       <c r="R30">
-        <v>157.43531593335</v>
+        <v>63.091595138702</v>
       </c>
       <c r="S30">
-        <v>0.01782193524283484</v>
+        <v>0.009912621436012093</v>
       </c>
       <c r="T30">
-        <v>0.02292382558960564</v>
+        <v>0.01317708591135905</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F31">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G31">
-        <v>0.5777963333333334</v>
+        <v>0.2558096666666667</v>
       </c>
       <c r="H31">
-        <v>1.733389</v>
+        <v>0.767429</v>
       </c>
       <c r="I31">
-        <v>0.1253455947277287</v>
+        <v>0.06677479238079162</v>
       </c>
       <c r="J31">
-        <v>0.1467909867357149</v>
+        <v>0.08044421895849953</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N31">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O31">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P31">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q31">
-        <v>41.36165144342623</v>
+        <v>9.953408062680332</v>
       </c>
       <c r="R31">
-        <v>372.254862990836</v>
+        <v>89.58067256412301</v>
       </c>
       <c r="S31">
-        <v>0.04213985929854302</v>
+        <v>0.01407444673350471</v>
       </c>
       <c r="T31">
-        <v>0.05420324851189751</v>
+        <v>0.01870950030316603</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H32">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I32">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J32">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>51.426897</v>
+        <v>35.418552</v>
       </c>
       <c r="N32">
-        <v>102.853794</v>
+        <v>70.837104</v>
       </c>
       <c r="O32">
-        <v>0.2415189642606735</v>
+        <v>0.1918645458500658</v>
       </c>
       <c r="P32">
-        <v>0.1768487108054954</v>
+        <v>0.1411406244578309</v>
       </c>
       <c r="Q32">
-        <v>19.301165851462</v>
+        <v>36.26535054739999</v>
       </c>
       <c r="R32">
-        <v>115.806995108772</v>
+        <v>217.5921032844</v>
       </c>
       <c r="S32">
-        <v>0.01966431186605148</v>
+        <v>0.05128039977231764</v>
       </c>
       <c r="T32">
-        <v>0.01686241325328609</v>
+        <v>0.04544551191499385</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H33">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I33">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J33">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>1.704871</v>
       </c>
       <c r="O33">
-        <v>0.002668893141774033</v>
+        <v>0.00307846483153751</v>
       </c>
       <c r="P33">
-        <v>0.002931386648116022</v>
+        <v>0.003396899985635307</v>
       </c>
       <c r="Q33">
-        <v>0.2132865604442222</v>
+        <v>0.5818772080527778</v>
       </c>
       <c r="R33">
-        <v>1.919579043998</v>
+        <v>5.236894872475</v>
       </c>
       <c r="S33">
-        <v>0.0002172994871755342</v>
+        <v>0.000822793531482512</v>
       </c>
       <c r="T33">
-        <v>0.0002795058716603405</v>
+        <v>0.001093759216130963</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H34">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I34">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J34">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>53.30129133333333</v>
+        <v>65.80493666666666</v>
       </c>
       <c r="N34">
-        <v>159.903874</v>
+        <v>197.41481</v>
       </c>
       <c r="O34">
-        <v>0.2503217854381353</v>
+        <v>0.356469521629296</v>
       </c>
       <c r="P34">
-        <v>0.2749416707924686</v>
+        <v>0.3933425844261512</v>
       </c>
       <c r="Q34">
-        <v>20.00464978709022</v>
+        <v>67.3782230274722</v>
       </c>
       <c r="R34">
-        <v>180.041848083812</v>
+        <v>606.40400724725</v>
       </c>
       <c r="S34">
-        <v>0.02038103165434877</v>
+        <v>0.09527502590333761</v>
       </c>
       <c r="T34">
-        <v>0.02621551524088055</v>
+        <v>0.1266513817398753</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H35">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I35">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J35">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>5.7743895</v>
+        <v>16.4967725</v>
       </c>
       <c r="N35">
-        <v>11.548779</v>
+        <v>32.993545</v>
       </c>
       <c r="O35">
-        <v>0.02711858293292921</v>
+        <v>0.08936406445143084</v>
       </c>
       <c r="P35">
-        <v>0.01985718365943388</v>
+        <v>0.06573856469877065</v>
       </c>
       <c r="Q35">
-        <v>2.167201521617</v>
+        <v>16.89118283585416</v>
       </c>
       <c r="R35">
-        <v>13.003209129702</v>
+        <v>101.347097015125</v>
       </c>
       <c r="S35">
-        <v>0.002207976809568213</v>
+        <v>0.02388468870079657</v>
       </c>
       <c r="T35">
-        <v>0.001893369962306612</v>
+        <v>0.02116699381746868</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H36">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I36">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J36">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.27505</v>
+        <v>27.40387933333333</v>
       </c>
       <c r="N36">
-        <v>90.82515000000001</v>
+        <v>82.21163799999999</v>
       </c>
       <c r="O36">
-        <v>0.14218238208967</v>
+        <v>0.1484485549499597</v>
       </c>
       <c r="P36">
-        <v>0.1561664384127215</v>
+        <v>0.1638040132897181</v>
       </c>
       <c r="Q36">
-        <v>11.36260974896667</v>
+        <v>28.05906041506111</v>
       </c>
       <c r="R36">
-        <v>102.2634877407</v>
+        <v>252.53154373555</v>
       </c>
       <c r="S36">
-        <v>0.01157639406010248</v>
+        <v>0.03967643531914254</v>
       </c>
       <c r="T36">
-        <v>0.01489037159962905</v>
+        <v>0.05274283903927187</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>0.3753126666666667</v>
+        <v>1.023908333333333</v>
       </c>
       <c r="H37">
-        <v>1.125938</v>
+        <v>3.071725</v>
       </c>
       <c r="I37">
-        <v>0.08141932840034714</v>
+        <v>0.2672739746945804</v>
       </c>
       <c r="J37">
-        <v>0.09534937052400667</v>
+        <v>0.3219874652642745</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>71.58517466666667</v>
+        <v>38.909429</v>
       </c>
       <c r="N37">
-        <v>214.755524</v>
+        <v>116.728287</v>
       </c>
       <c r="O37">
-        <v>0.3361893921368179</v>
+        <v>0.2107748482877103</v>
       </c>
       <c r="P37">
-        <v>0.3692546096817647</v>
+        <v>0.232577313141894</v>
       </c>
       <c r="Q37">
-        <v>26.86682279794578</v>
+        <v>39.83968859834166</v>
       </c>
       <c r="R37">
-        <v>241.801405181512</v>
+        <v>358.557197385075</v>
       </c>
       <c r="S37">
-        <v>0.02737231452310066</v>
+        <v>0.05633463146750351</v>
       </c>
       <c r="T37">
-        <v>0.03520819459624404</v>
+        <v>0.07488697953653388</v>
       </c>
     </row>
   </sheetData>
